--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Pecam1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.289920333333334</v>
+        <v>0.1162756666666667</v>
       </c>
       <c r="H2">
-        <v>12.869761</v>
+        <v>0.348827</v>
       </c>
       <c r="I2">
-        <v>0.5109350873302341</v>
+        <v>0.006946959983330179</v>
       </c>
       <c r="J2">
-        <v>0.5109350873302341</v>
+        <v>0.006946959983330179</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>260.05794</v>
+        <v>378.093333</v>
       </c>
       <c r="N2">
-        <v>780.1738200000001</v>
+        <v>1134.279999</v>
       </c>
       <c r="O2">
-        <v>0.9183237679872464</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="P2">
-        <v>0.9183237679872462</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="Q2">
-        <v>1115.62784465078</v>
+        <v>43.963054356797</v>
       </c>
       <c r="R2">
-        <v>10040.65060185702</v>
+        <v>395.667489211173</v>
       </c>
       <c r="S2">
-        <v>0.4692038345939933</v>
+        <v>0.006571969897681081</v>
       </c>
       <c r="T2">
-        <v>0.4692038345939933</v>
+        <v>0.006571969897681081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.289920333333334</v>
+        <v>0.1162756666666667</v>
       </c>
       <c r="H3">
-        <v>12.869761</v>
+        <v>0.348827</v>
       </c>
       <c r="I3">
-        <v>0.5109350873302341</v>
+        <v>0.006946959983330179</v>
       </c>
       <c r="J3">
-        <v>0.5109350873302341</v>
+        <v>0.006946959983330179</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.895548</v>
       </c>
       <c r="O3">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="P3">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="Q3">
-        <v>14.15037085822533</v>
+        <v>0.3835371469106666</v>
       </c>
       <c r="R3">
-        <v>127.353337724028</v>
+        <v>3.451834322196</v>
       </c>
       <c r="S3">
-        <v>0.005951275149182679</v>
+        <v>5.733438272242533E-05</v>
       </c>
       <c r="T3">
-        <v>0.005951275149182679</v>
+        <v>5.733438272242533E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.289920333333334</v>
+        <v>0.1162756666666667</v>
       </c>
       <c r="H4">
-        <v>12.869761</v>
+        <v>0.348827</v>
       </c>
       <c r="I4">
-        <v>0.5109350873302341</v>
+        <v>0.006946959983330179</v>
       </c>
       <c r="J4">
-        <v>0.5109350873302341</v>
+        <v>0.006946959983330179</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.199381666666667</v>
+        <v>6.711213333333333</v>
       </c>
       <c r="N4">
-        <v>15.598145</v>
+        <v>20.13364</v>
       </c>
       <c r="O4">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043815</v>
       </c>
       <c r="P4">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043814</v>
       </c>
       <c r="Q4">
-        <v>22.30493313259389</v>
+        <v>0.7803508044755555</v>
       </c>
       <c r="R4">
-        <v>200.744398193345</v>
+        <v>7.02315724028</v>
       </c>
       <c r="S4">
-        <v>0.009380870338039698</v>
+        <v>0.0001166534507594255</v>
       </c>
       <c r="T4">
-        <v>0.009380870338039698</v>
+        <v>0.0001166534507594255</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.289920333333334</v>
+        <v>0.1162756666666667</v>
       </c>
       <c r="H5">
-        <v>12.869761</v>
+        <v>0.348827</v>
       </c>
       <c r="I5">
-        <v>0.5109350873302341</v>
+        <v>0.006946959983330179</v>
       </c>
       <c r="J5">
-        <v>0.5109350873302341</v>
+        <v>0.006946959983330179</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.568123</v>
+        <v>0.9811139999999999</v>
       </c>
       <c r="N5">
-        <v>10.704369</v>
+        <v>2.943342</v>
       </c>
       <c r="O5">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="P5">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="Q5">
-        <v>15.30696340953433</v>
+        <v>0.114079684426</v>
       </c>
       <c r="R5">
-        <v>137.762670685809</v>
+        <v>1.026717159834</v>
       </c>
       <c r="S5">
-        <v>0.006437707665849475</v>
+        <v>1.70535979120094E-05</v>
       </c>
       <c r="T5">
-        <v>0.006437707665849475</v>
+        <v>1.70535979120094E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>4.289920333333334</v>
+        <v>0.1162756666666667</v>
       </c>
       <c r="H6">
-        <v>12.869761</v>
+        <v>0.348827</v>
       </c>
       <c r="I6">
-        <v>0.5109350873302341</v>
+        <v>0.006946959983330179</v>
       </c>
       <c r="J6">
-        <v>0.5109350873302341</v>
+        <v>0.006946959983330179</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.580850666666667</v>
+        <v>8.202069666666667</v>
       </c>
       <c r="N6">
-        <v>16.742552</v>
+        <v>24.606209</v>
       </c>
       <c r="O6">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="P6">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="Q6">
-        <v>23.94140475223022</v>
+        <v>0.9537011185381111</v>
       </c>
       <c r="R6">
-        <v>215.472642770072</v>
+        <v>8.583310066843</v>
       </c>
       <c r="S6">
-        <v>0.01006912741482319</v>
+        <v>0.0001425673246346728</v>
       </c>
       <c r="T6">
-        <v>0.01006912741482319</v>
+        <v>0.0001425673246346727</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>4.289920333333334</v>
+        <v>0.1162756666666667</v>
       </c>
       <c r="H7">
-        <v>12.869761</v>
+        <v>0.348827</v>
       </c>
       <c r="I7">
-        <v>0.5109350873302341</v>
+        <v>0.006946959983330179</v>
       </c>
       <c r="J7">
-        <v>0.5109350873302341</v>
+        <v>0.006946959983330179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.482828</v>
+        <v>2.380717666666667</v>
       </c>
       <c r="N7">
-        <v>16.448484</v>
+        <v>7.142153</v>
       </c>
       <c r="O7">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198039</v>
       </c>
       <c r="P7">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198038</v>
       </c>
       <c r="Q7">
-        <v>23.52089532136934</v>
+        <v>0.2768195338367778</v>
       </c>
       <c r="R7">
-        <v>211.688057892324</v>
+        <v>2.491375804531</v>
       </c>
       <c r="S7">
-        <v>0.009892272168345697</v>
+        <v>4.138132962056455E-05</v>
       </c>
       <c r="T7">
-        <v>0.009892272168345696</v>
+        <v>4.138132962056454E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.540835666666667</v>
+        <v>12.46325766666667</v>
       </c>
       <c r="H8">
-        <v>7.622507</v>
+        <v>37.38977300000001</v>
       </c>
       <c r="I8">
-        <v>0.3026168302364216</v>
+        <v>0.7446248622291256</v>
       </c>
       <c r="J8">
-        <v>0.3026168302364217</v>
+        <v>0.7446248622291256</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>260.05794</v>
+        <v>378.093333</v>
       </c>
       <c r="N8">
-        <v>780.1738200000001</v>
+        <v>1134.279999</v>
       </c>
       <c r="O8">
-        <v>0.9183237679872464</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="P8">
-        <v>0.9183237679872462</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="Q8">
-        <v>660.7644893518601</v>
+        <v>4712.274631227804</v>
       </c>
       <c r="R8">
-        <v>5946.880404166741</v>
+        <v>42410.47168105024</v>
       </c>
       <c r="S8">
-        <v>0.2779002277990675</v>
+        <v>0.7044307425661686</v>
       </c>
       <c r="T8">
-        <v>0.2779002277990676</v>
+        <v>0.7044307425661686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.540835666666667</v>
+        <v>12.46325766666667</v>
       </c>
       <c r="H9">
-        <v>7.622507</v>
+        <v>37.38977300000001</v>
       </c>
       <c r="I9">
-        <v>0.3026168302364216</v>
+        <v>0.7446248622291256</v>
       </c>
       <c r="J9">
-        <v>0.3026168302364217</v>
+        <v>0.7446248622291256</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>9.895548</v>
       </c>
       <c r="O9">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="P9">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="Q9">
-        <v>8.380987099870666</v>
+        <v>41.11025482562267</v>
       </c>
       <c r="R9">
-        <v>75.42888389883599</v>
+        <v>369.992293430604</v>
       </c>
       <c r="S9">
-        <v>0.003524823536627526</v>
+        <v>0.00614550924981898</v>
       </c>
       <c r="T9">
-        <v>0.003524823536627527</v>
+        <v>0.00614550924981898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.540835666666667</v>
+        <v>12.46325766666667</v>
       </c>
       <c r="H10">
-        <v>7.622507</v>
+        <v>37.38977300000001</v>
       </c>
       <c r="I10">
-        <v>0.3026168302364216</v>
+        <v>0.7446248622291256</v>
       </c>
       <c r="J10">
-        <v>0.3026168302364217</v>
+        <v>0.7446248622291256</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.199381666666667</v>
+        <v>6.711213333333333</v>
       </c>
       <c r="N10">
-        <v>15.598145</v>
+        <v>20.13364</v>
       </c>
       <c r="O10">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043815</v>
       </c>
       <c r="P10">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043814</v>
       </c>
       <c r="Q10">
-        <v>13.21077438327944</v>
+        <v>83.64358102930224</v>
       </c>
       <c r="R10">
-        <v>118.896969449515</v>
+        <v>752.7922292637201</v>
       </c>
       <c r="S10">
-        <v>0.005556105495494435</v>
+        <v>0.01250375126799702</v>
       </c>
       <c r="T10">
-        <v>0.005556105495494436</v>
+        <v>0.01250375126799702</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.540835666666667</v>
+        <v>12.46325766666667</v>
       </c>
       <c r="H11">
-        <v>7.622507</v>
+        <v>37.38977300000001</v>
       </c>
       <c r="I11">
-        <v>0.3026168302364216</v>
+        <v>0.7446248622291256</v>
       </c>
       <c r="J11">
-        <v>0.3026168302364217</v>
+        <v>0.7446248622291256</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.568123</v>
+        <v>0.9811139999999999</v>
       </c>
       <c r="N11">
-        <v>10.704369</v>
+        <v>2.943342</v>
       </c>
       <c r="O11">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="P11">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="Q11">
-        <v>9.066014181453667</v>
+        <v>12.227876582374</v>
       </c>
       <c r="R11">
-        <v>81.59412763308299</v>
+        <v>110.050889241366</v>
       </c>
       <c r="S11">
-        <v>0.003812927974877799</v>
+        <v>0.001827926607640193</v>
       </c>
       <c r="T11">
-        <v>0.003812927974877799</v>
+        <v>0.001827926607640193</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.540835666666667</v>
+        <v>12.46325766666667</v>
       </c>
       <c r="H12">
-        <v>7.622507</v>
+        <v>37.38977300000001</v>
       </c>
       <c r="I12">
-        <v>0.3026168302364216</v>
+        <v>0.7446248622291256</v>
       </c>
       <c r="J12">
-        <v>0.3026168302364217</v>
+        <v>0.7446248622291256</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.580850666666667</v>
+        <v>8.202069666666667</v>
       </c>
       <c r="N12">
-        <v>16.742552</v>
+        <v>24.606209</v>
       </c>
       <c r="O12">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="P12">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="Q12">
-        <v>14.18002442420711</v>
+        <v>102.2245076556175</v>
       </c>
       <c r="R12">
-        <v>127.620219817864</v>
+        <v>920.0205689005571</v>
       </c>
       <c r="S12">
-        <v>0.00596374666191405</v>
+        <v>0.01528138563043492</v>
       </c>
       <c r="T12">
-        <v>0.005963746661914051</v>
+        <v>0.01528138563043492</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.540835666666667</v>
+        <v>12.46325766666667</v>
       </c>
       <c r="H13">
-        <v>7.622507</v>
+        <v>37.38977300000001</v>
       </c>
       <c r="I13">
-        <v>0.3026168302364216</v>
+        <v>0.7446248622291256</v>
       </c>
       <c r="J13">
-        <v>0.3026168302364217</v>
+        <v>0.7446248622291256</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.482828</v>
+        <v>2.380717666666667</v>
       </c>
       <c r="N13">
-        <v>16.448484</v>
+        <v>7.142153</v>
       </c>
       <c r="O13">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198039</v>
       </c>
       <c r="P13">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198038</v>
       </c>
       <c r="Q13">
-        <v>13.93096493659867</v>
+        <v>29.67149771125212</v>
       </c>
       <c r="R13">
-        <v>125.378684429388</v>
+        <v>267.0434794012691</v>
       </c>
       <c r="S13">
-        <v>0.00585899876844024</v>
+        <v>0.004435546907065924</v>
       </c>
       <c r="T13">
-        <v>0.00585899876844024</v>
+        <v>0.004435546907065923</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.565458</v>
+        <v>2.951785333333333</v>
       </c>
       <c r="H14">
-        <v>4.696374</v>
+        <v>8.855356</v>
       </c>
       <c r="I14">
-        <v>0.1864480824333443</v>
+        <v>0.1763561988324952</v>
       </c>
       <c r="J14">
-        <v>0.1864480824333443</v>
+        <v>0.1763561988324952</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>260.05794</v>
+        <v>378.093333</v>
       </c>
       <c r="N14">
-        <v>780.1738200000001</v>
+        <v>1134.279999</v>
       </c>
       <c r="O14">
-        <v>0.9183237679872464</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="P14">
-        <v>0.9183237679872462</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="Q14">
-        <v>407.10978263652</v>
+        <v>1116.050354980516</v>
       </c>
       <c r="R14">
-        <v>3663.98804372868</v>
+        <v>10044.45319482465</v>
       </c>
       <c r="S14">
-        <v>0.1712197055941855</v>
+        <v>0.1668366642067545</v>
       </c>
       <c r="T14">
-        <v>0.1712197055941855</v>
+        <v>0.1668366642067545</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.565458</v>
+        <v>2.951785333333333</v>
       </c>
       <c r="H15">
-        <v>4.696374</v>
+        <v>8.855356</v>
       </c>
       <c r="I15">
-        <v>0.1864480824333443</v>
+        <v>0.1763561988324952</v>
       </c>
       <c r="J15">
-        <v>0.1864480824333443</v>
+        <v>0.1763561988324952</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>9.895548</v>
       </c>
       <c r="O15">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="P15">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="Q15">
-        <v>5.163688260327999</v>
+        <v>9.736511150565333</v>
       </c>
       <c r="R15">
-        <v>46.47319434295199</v>
+        <v>87.628600355088</v>
       </c>
       <c r="S15">
-        <v>0.002171711959333794</v>
+        <v>0.001455496191657542</v>
       </c>
       <c r="T15">
-        <v>0.002171711959333794</v>
+        <v>0.001455496191657542</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.565458</v>
+        <v>2.951785333333333</v>
       </c>
       <c r="H16">
-        <v>4.696374</v>
+        <v>8.855356</v>
       </c>
       <c r="I16">
-        <v>0.1864480824333443</v>
+        <v>0.1763561988324952</v>
       </c>
       <c r="J16">
-        <v>0.1864480824333443</v>
+        <v>0.1763561988324952</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.199381666666667</v>
+        <v>6.711213333333333</v>
       </c>
       <c r="N16">
-        <v>15.598145</v>
+        <v>20.13364</v>
       </c>
       <c r="O16">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043815</v>
       </c>
       <c r="P16">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043814</v>
       </c>
       <c r="Q16">
-        <v>8.139413625136665</v>
+        <v>19.81006108620445</v>
       </c>
       <c r="R16">
-        <v>73.25472262622999</v>
+        <v>178.29054977584</v>
       </c>
       <c r="S16">
-        <v>0.003423224063985402</v>
+        <v>0.002961375796894115</v>
       </c>
       <c r="T16">
-        <v>0.003423224063985403</v>
+        <v>0.002961375796894114</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.565458</v>
+        <v>2.951785333333333</v>
       </c>
       <c r="H17">
-        <v>4.696374</v>
+        <v>8.855356</v>
       </c>
       <c r="I17">
-        <v>0.1864480824333443</v>
+        <v>0.1763561988324952</v>
       </c>
       <c r="J17">
-        <v>0.1864480824333443</v>
+        <v>0.1763561988324952</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.568123</v>
+        <v>0.9811139999999999</v>
       </c>
       <c r="N17">
-        <v>10.704369</v>
+        <v>2.943342</v>
       </c>
       <c r="O17">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="P17">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="Q17">
-        <v>5.585746695334</v>
+        <v>2.896037915528</v>
       </c>
       <c r="R17">
-        <v>50.27172025800599</v>
+        <v>26.064341239752</v>
       </c>
       <c r="S17">
-        <v>0.002349218676360513</v>
+        <v>0.0004329242879470338</v>
       </c>
       <c r="T17">
-        <v>0.002349218676360513</v>
+        <v>0.0004329242879470338</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.565458</v>
+        <v>2.951785333333333</v>
       </c>
       <c r="H18">
-        <v>4.696374</v>
+        <v>8.855356</v>
       </c>
       <c r="I18">
-        <v>0.1864480824333443</v>
+        <v>0.1763561988324952</v>
       </c>
       <c r="J18">
-        <v>0.1864480824333443</v>
+        <v>0.1763561988324952</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.580850666666667</v>
+        <v>8.202069666666667</v>
       </c>
       <c r="N18">
-        <v>16.742552</v>
+        <v>24.606209</v>
       </c>
       <c r="O18">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="P18">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="Q18">
-        <v>8.736587322938666</v>
+        <v>24.21074894504489</v>
       </c>
       <c r="R18">
-        <v>78.62928590644799</v>
+        <v>217.896740505404</v>
       </c>
       <c r="S18">
-        <v>0.003674379671360083</v>
+        <v>0.003619227908411899</v>
       </c>
       <c r="T18">
-        <v>0.003674379671360084</v>
+        <v>0.003619227908411898</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.951785333333333</v>
+      </c>
+      <c r="H19">
+        <v>8.855356</v>
+      </c>
+      <c r="I19">
+        <v>0.1763561988324952</v>
+      </c>
+      <c r="J19">
+        <v>0.1763561988324952</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.380717666666667</v>
+      </c>
+      <c r="N19">
+        <v>7.142153</v>
+      </c>
+      <c r="O19">
+        <v>0.005956753705198039</v>
+      </c>
+      <c r="P19">
+        <v>0.005956753705198038</v>
+      </c>
+      <c r="Q19">
+        <v>7.027367491274223</v>
+      </c>
+      <c r="R19">
+        <v>63.246307421468</v>
+      </c>
+      <c r="S19">
+        <v>0.001050510440830108</v>
+      </c>
+      <c r="T19">
+        <v>0.001050510440830108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.206314333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.618943</v>
+      </c>
+      <c r="I20">
+        <v>0.07207197895504897</v>
+      </c>
+      <c r="J20">
+        <v>0.07207197895504897</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>378.093333</v>
+      </c>
+      <c r="N20">
+        <v>1134.279999</v>
+      </c>
+      <c r="O20">
+        <v>0.9460209808968357</v>
+      </c>
+      <c r="P20">
+        <v>0.9460209808968357</v>
+      </c>
+      <c r="Q20">
+        <v>456.099406935673</v>
+      </c>
+      <c r="R20">
+        <v>4104.894662421058</v>
+      </c>
+      <c r="S20">
+        <v>0.06818160422623153</v>
+      </c>
+      <c r="T20">
+        <v>0.06818160422623153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.206314333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.618943</v>
+      </c>
+      <c r="I21">
+        <v>0.07207197895504897</v>
+      </c>
+      <c r="J21">
+        <v>0.07207197895504897</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.298516</v>
+      </c>
+      <c r="N21">
+        <v>9.895548</v>
+      </c>
+      <c r="O21">
+        <v>0.008253161506616428</v>
+      </c>
+      <c r="P21">
+        <v>0.008253161506616428</v>
+      </c>
+      <c r="Q21">
+        <v>3.979047129529333</v>
+      </c>
+      <c r="R21">
+        <v>35.811424165764</v>
+      </c>
+      <c r="S21">
+        <v>0.0005948216824174794</v>
+      </c>
+      <c r="T21">
+        <v>0.0005948216824174794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.206314333333333</v>
+      </c>
+      <c r="H22">
+        <v>3.618943</v>
+      </c>
+      <c r="I22">
+        <v>0.07207197895504897</v>
+      </c>
+      <c r="J22">
+        <v>0.07207197895504897</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.711213333333333</v>
+      </c>
+      <c r="N22">
+        <v>20.13364</v>
+      </c>
+      <c r="O22">
+        <v>0.01679201421043815</v>
+      </c>
+      <c r="P22">
+        <v>0.01679201421043814</v>
+      </c>
+      <c r="Q22">
+        <v>8.095832838057778</v>
+      </c>
+      <c r="R22">
+        <v>72.86249554251999</v>
+      </c>
+      <c r="S22">
+        <v>0.001210233694787581</v>
+      </c>
+      <c r="T22">
+        <v>0.001210233694787581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.206314333333333</v>
+      </c>
+      <c r="H23">
+        <v>3.618943</v>
+      </c>
+      <c r="I23">
+        <v>0.07207197895504897</v>
+      </c>
+      <c r="J23">
+        <v>0.07207197895504897</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9811139999999999</v>
+      </c>
+      <c r="N23">
+        <v>2.943342</v>
+      </c>
+      <c r="O23">
+        <v>0.002454828868012909</v>
+      </c>
+      <c r="P23">
+        <v>0.002454828868012909</v>
+      </c>
+      <c r="Q23">
+        <v>1.183531880834</v>
+      </c>
+      <c r="R23">
+        <v>10.651786927506</v>
+      </c>
+      <c r="S23">
+        <v>0.0001769243745136731</v>
+      </c>
+      <c r="T23">
+        <v>0.0001769243745136731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>1.565458</v>
-      </c>
-      <c r="H19">
-        <v>4.696374</v>
-      </c>
-      <c r="I19">
-        <v>0.1864480824333443</v>
-      </c>
-      <c r="J19">
-        <v>0.1864480824333443</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>5.482828</v>
-      </c>
-      <c r="N19">
-        <v>16.448484</v>
-      </c>
-      <c r="O19">
-        <v>0.01936111340490499</v>
-      </c>
-      <c r="P19">
-        <v>0.01936111340490499</v>
-      </c>
-      <c r="Q19">
-        <v>8.583136955223999</v>
-      </c>
-      <c r="R19">
-        <v>77.248232597016</v>
-      </c>
-      <c r="S19">
-        <v>0.003609842468119053</v>
-      </c>
-      <c r="T19">
-        <v>0.003609842468119053</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.206314333333333</v>
+      </c>
+      <c r="H24">
+        <v>3.618943</v>
+      </c>
+      <c r="I24">
+        <v>0.07207197895504897</v>
+      </c>
+      <c r="J24">
+        <v>0.07207197895504897</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>8.202069666666667</v>
+      </c>
+      <c r="N24">
+        <v>24.606209</v>
+      </c>
+      <c r="O24">
+        <v>0.02052226081289876</v>
+      </c>
+      <c r="P24">
+        <v>0.02052226081289876</v>
+      </c>
+      <c r="Q24">
+        <v>9.894274201898554</v>
+      </c>
+      <c r="R24">
+        <v>89.048467817087</v>
+      </c>
+      <c r="S24">
+        <v>0.001479079949417266</v>
+      </c>
+      <c r="T24">
+        <v>0.001479079949417265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.206314333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.618943</v>
+      </c>
+      <c r="I25">
+        <v>0.07207197895504897</v>
+      </c>
+      <c r="J25">
+        <v>0.07207197895504897</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.380717666666667</v>
+      </c>
+      <c r="N25">
+        <v>7.142153</v>
+      </c>
+      <c r="O25">
+        <v>0.005956753705198039</v>
+      </c>
+      <c r="P25">
+        <v>0.005956753705198038</v>
+      </c>
+      <c r="Q25">
+        <v>2.871893844919889</v>
+      </c>
+      <c r="R25">
+        <v>25.847044604279</v>
+      </c>
+      <c r="S25">
+        <v>0.000429315027681443</v>
+      </c>
+      <c r="T25">
+        <v>0.000429315027681443</v>
       </c>
     </row>
   </sheetData>
